--- a/AutoTest/Wnl_DayCheck/configdata/useexm.xlsx
+++ b/AutoTest/Wnl_DayCheck/configdata/useexm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -57,16 +57,16 @@
     <t>yes</t>
   </si>
   <si>
-    <t>https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg</t>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1207&amp;adNum=-1&amp;ssid=none&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=10010&amp;oudid=ef5b61d9fa2136bd&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-5yzAJeqYFDBDdY%252BtsV9qu4BaZNvb0iQH&amp;imei1=&amp;model=PBET00&amp;lang=zh&amp;dpi=3.0&amp;brand=OPPO&amp;height=2340&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678482372-eqnrUgBRNkAxuAnO-F051&amp;ov=10&amp;idfa=ef5b61d9fa2136bd&amp;chn=10010-0&amp;ppi=480&amp;carrier=99&amp;av=6.4.9&amp;hwappstorever=&amp;width=1080&amp;imei=unknow&amp;did=7d7c2a0fe5e823bc2864fedf14087b30&amp;cid=Youloft_Android&amp;deviceid=7d7c2a0fe5e823bc2864fedf14087b30&amp;city=101050101&amp;nt=0&amp;t=1677225246&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677225246&amp;citycode=101050101&amp;autoCityCode=101040100&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000002140835214&amp;uid=&amp;utkn=AvDEkADvkLdgUjLdldGagiLVWDXz8pUPhYAH2ZrS4g6k&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677225246&amp;authsign=b37ee43acc6ac5b6d373dc8c60f4d540&amp;product=PBET00&amp;vaid=F3CEE640C00644D6A7ACE9AFD2CB33DDC92CAC035A02359314D276F8028C802E&amp;oaid=BE0670096F084B778B147D26C552BEA081905f63b32f42e5a4179efb9fb0be2c&amp;clienttime=1677225246304</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>35C8A3B268F541A184C46D5CC66E9EE4</t>
-  </si>
-  <si>
-    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=17160&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+    <t>A9CF9385088A40D3B87E2BA161FEFEB9</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15891&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
   </si>
   <si>
     <t>commonbody</t>
@@ -75,46 +75,127 @@
     <t>日卡文字链 - ios次次新</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15890&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+  </si>
+  <si>
     <t>日卡文字链 - ios次新非北京重庆上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF</t>
+  </si>
+  <si>
     <t>日卡文字链 - ios次新上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497275&amp;lat=29.610800&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467699&amp;authsign=0ce909c963192f58cabc4a2636927886&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467700&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497275&amp;city=101020100&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=171&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF</t>
+  </si>
+  <si>
+    <t>com.cesuan.bzjp_wnld1xz</t>
+  </si>
+  <si>
+    <t>youloft.419805549://cesuan?id=com.cesuan.bzjp_wnld1xz&amp;posid=AM6&amp;parterid=D1XZ&amp;name=%e5%85%ab%e5%ad%97%e7%b2%be%e6%89%b9</t>
+  </si>
+  <si>
     <t>日卡文字链 - ios最新非北京重庆</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF</t>
+  </si>
+  <si>
     <t>每日一言文字链 - 安卓</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1209&amp;adNum=3&amp;ssid=CalendarPro&amp;migrateDate=2023-02-27&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0TeXHDQfTeV0&amp;imei1=865564045173738&amp;model=V1901A&amp;lang=zh&amp;dpi=2.0&amp;brand=vivo&amp;height=1544&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678319957-EP%252FB8QApioltCdwy-55FC&amp;ov=9&amp;idfa=23fb7ee51b764d8d&amp;chn=20254-0&amp;ppi=320&amp;carrier=99&amp;av=6.5.2&amp;hwappstorever=&amp;width=720&amp;imei=A00000D3BCA8B1&amp;did=6ffefbff0f08b331f4b5d2c15ec8d997&amp;cid=Youloft_Android&amp;deviceid=6ffefbff0f08b331f4b5d2c15ec8d997&amp;city=101060101&amp;nt=0&amp;t=1677477493&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677477493&amp;citycode=101060101&amp;autoCityCode=101040700&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000000457712943&amp;uid=&amp;utkn=At5XDV-_djXNnaDw_D8gePFiLhKiAxMjkekCr1cO1jk2&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677477493&amp;authsign=a02fc7c5accb0a48e50fec06572707d9&amp;product=PD1901E&amp;vaid=&amp;clienttime=1677477493995</t>
+  </si>
+  <si>
+    <t>DC131CFDEF174C6095499DCF106141FA</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15893&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+  </si>
+  <si>
     <t>每日一言文字链 - ios次次新</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15892&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+  </si>
+  <si>
     <t>每日一言文字链 - ios次新非北京重庆上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958</t>
+  </si>
+  <si>
     <t>每日一言文字链 - ios次新上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497218&amp;lat=29.610792&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468548&amp;authsign=985529274665839d4933b2212b27425d&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468548&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497218&amp;city=101020100&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=493</t>
+  </si>
+  <si>
+    <t>com.cesuan.bzzsy_wnld1xz</t>
+  </si>
+  <si>
+    <t>youloft.419805549://cesuan?id=com.cesuan.bzzsy_wnld1xz&amp;posid=AM3&amp;parterid=D1XZ&amp;name=%e5%85%ab%e5%ad%97%e7%bb%88%e8%ba%ab%e8%bf%90</t>
+  </si>
+  <si>
     <t>每日一言文字链 - ios最新非北京重庆</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958</t>
+  </si>
+  <si>
     <t>每日一言下拉视频 - 安卓</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1203&amp;adNum=-1&amp;ssid=CalendarPro&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0TeXHDQfTeV0&amp;imei1=865564045173738&amp;model=V1901A&amp;lang=zh&amp;dpi=2.0&amp;brand=vivo&amp;height=1544&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678319957-EP%252FB8QApioltCdwy-55FC&amp;ov=9&amp;idfa=23fb7ee51b764d8d&amp;chn=20254-0&amp;ppi=320&amp;carrier=99&amp;av=6.5.2&amp;hwappstorever=&amp;width=720&amp;imei=A00000D3BCA8B1&amp;did=6ffefbff0f08b331f4b5d2c15ec8d997&amp;cid=Youloft_Android&amp;deviceid=6ffefbff0f08b331f4b5d2c15ec8d997&amp;city=101060101&amp;nt=0&amp;t=1677477444&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677477444&amp;citycode=101060101&amp;autoCityCode=101040700&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000000457712943&amp;uid=&amp;utkn=At5XDV-_djXNnaDw_D8gePFiLhKiAxMjkekCr1cO1jk2&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677477444&amp;authsign=3002a74f244d9491897fb349d8408a56&amp;product=PD1901E&amp;vaid=&amp;clienttime=1677477444703</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16818&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+  </si>
+  <si>
     <t>每日一言下拉视频 - ios次次新</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758</t>
+  </si>
+  <si>
+    <t>https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16817&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]</t>
+  </si>
+  <si>
     <t>每日一言下拉视频 - ios次新非北京重庆上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758</t>
+  </si>
+  <si>
     <t>每日一言下拉视频 - ios次新上海</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497267&amp;lat=29.610751&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677477065&amp;authsign=f271d8a0f49b4616d5bad0ef7bfaaa1c&amp;logintoken=&amp;signtimestamp=1677477066&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497267&amp;city=101020100&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=508</t>
+  </si>
+  <si>
+    <t>om.cesuan.bzzsy_wnld1xz</t>
+  </si>
+  <si>
+    <t>youloft.419805549://cesuan?id=com.cesuan.bzzsy_wnld1xz&amp;posid=AM3VH&amp;parterid=D1XZ&amp;name=%e5%85%ab%e5%ad%97%e7%bb%88%e8%ba%ab%e8%bf%90</t>
+  </si>
+  <si>
     <t>每日一言下拉视频 - ios最新非北京重庆</t>
   </si>
   <si>
+    <t>https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758</t>
+  </si>
+  <si>
     <t>月视图 - 安卓</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>月视图 - ios次次新</t>
@@ -158,7 +239,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +247,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,15 +741,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,11 +869,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,13 +1234,13 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="70.25" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
@@ -1216,17 +1300,15 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2"/>
@@ -1239,19 +1321,21 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="2"/>
@@ -1259,24 +1343,26 @@
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="2"/>
@@ -1284,24 +1370,26 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2"/>
@@ -1309,24 +1397,26 @@
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2"/>
@@ -1334,24 +1424,26 @@
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="2"/>
@@ -1359,24 +1451,26 @@
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="2"/>
@@ -1384,24 +1478,26 @@
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="2"/>
@@ -1409,24 +1505,26 @@
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="2"/>
@@ -1434,24 +1532,26 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="2"/>
@@ -1459,24 +1559,26 @@
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="2"/>
@@ -1484,24 +1586,26 @@
     </row>
     <row r="13" ht="43" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="2"/>
@@ -1509,24 +1613,26 @@
     </row>
     <row r="14" ht="38" customHeight="1" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="2"/>
@@ -1534,24 +1640,26 @@
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="2"/>
@@ -1559,24 +1667,26 @@
     </row>
     <row r="16" ht="48" customHeight="1" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="2"/>
@@ -1584,24 +1694,20 @@
     </row>
     <row r="17" ht="48" customHeight="1" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="2"/>
@@ -1609,39 +1715,35 @@
     </row>
     <row r="18" ht="52" customHeight="1" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="53" customHeight="1" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1650,18 +1752,16 @@
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1670,18 +1770,16 @@
     </row>
     <row r="21" ht="58" customHeight="1" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1786,23 +1884,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C3" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C4" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C5" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C6" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C7" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C8" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C10" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C11" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C12" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C13" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C14" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C15" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C16" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C9" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="C17" r:id="rId1" display="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg" tooltip="https://c.51wnl-cq.com/contentapi/api4.4.0/UserFback/UploadMsg"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=17160&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1207&amp;adNum=-1&amp;ssid=none&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=10010&amp;oudid=ef5b61d9fa2136bd&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-5yzAJeqYFDBDdY%252BtsV9qu4BaZNvb0iQH&amp;imei1=&amp;model=PBET00&amp;lang=zh&amp;dpi=3.0&amp;brand=OPPO&amp;height=2340&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678482372-eqnrUgBRNkAxuAnO-F051&amp;ov=10&amp;idfa=ef5b61d9fa2136bd&amp;chn=10010-0&amp;ppi=480&amp;carrier=99&amp;av=6.4.9&amp;hwappstorever=&amp;width=1080&amp;imei=unknow&amp;did=7d7c2a0fe5e823bc2864fedf14087b30&amp;cid=Youloft_Android&amp;deviceid=7d7c2a0fe5e823bc2864fedf14087b30&amp;city=101050101&amp;nt=0&amp;t=1677225246&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677225246&amp;citycode=101050101&amp;autoCityCode=101040100&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000002140835214&amp;uid=&amp;utkn=AvDEkADvkLdgUjLdldGagiLVWDXz8pUPhYAH2ZrS4g6k&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677225246&amp;authsign=b37ee43acc6ac5b6d373dc8c60f4d540&amp;product=PBET00&amp;vaid=F3CEE640C00644D6A7ACE9AFD2CB33DDC92CAC035A023593" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1207&amp;adNum=-1&amp;ssid=none&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=10010&amp;oudid=ef5b61d9fa2136bd&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-5yzAJeqYFDBDdY%252BtsV9qu4BaZNvb0iQH&amp;imei1=&amp;model="/>
+    <hyperlink ref="C3" r:id="rId2" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497275&amp;lat=29.610800&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467699&amp;authsign=0ce909c963192f58cabc4a2636927886&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467700&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497275&amp;city=101020100&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=171&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497039&amp;lat=29.610899&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677467965&amp;authsign=1521afe478d3c518a58c280a43203559&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677467966&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497039&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1206&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;calculate=0&amp;lastshowad=0&amp;sign=168&amp;aliaaid=CAC372A9-64F5-AADC-E34C-8AA49FBFB2AF" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1209&amp;adNum=3&amp;ssid=CalendarPro&amp;migrateDate=2023-02-27&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0TeXHDQfTeV0&amp;imei1=865564045173738&amp;model=V1901A&amp;lang=zh&amp;dpi=2.0&amp;brand=vivo&amp;height=1544&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678319957-EP%252FB8QApioltCdwy-55FC&amp;ov=9&amp;idfa=23fb7ee51b764d8d&amp;chn=20254-0&amp;ppi=320&amp;carrier=99&amp;av=6.5.2&amp;hwappstorever=&amp;width=720&amp;imei=A00000D3BCA8B1&amp;did=6ffefbff0f08b331f4b5d2c15ec8d997&amp;cid=Youloft_Android&amp;deviceid=6ffefbff0f08b331f4b5d2c15ec8d997&amp;city=101060101&amp;nt=0&amp;t=1677477493&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677477493&amp;citycode=101060101&amp;autoCityCode=101040700&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000000457712943&amp;uid=&amp;utkn=At5XDV-_djXNnaDw_D8gePFiLhKiAxMjkekCr1cO1jk2&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677477493&amp;authsign=a02fc7c5accb0a48e50fec06572707d9&amp;product=PD1901E&amp;va" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1209&amp;adNum=3&amp;ssid=CalendarPro&amp;migrateDate=2023-02-27&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497218&amp;lat=29.610792&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468548&amp;authsign=985529274665839d4933b2212b27425d&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468548&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497218&amp;city=101020100&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=493" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1203&amp;adNum=-1&amp;ssid=CalendarPro&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0TeXHDQfTeV0&amp;imei1=865564045173738&amp;model=V1901A&amp;lang=zh&amp;dpi=2.0&amp;brand=vivo&amp;height=1544&amp;hmscorever=&amp;cc=CN&amp;zxid=Z01-1678319957-EP%252FB8QApioltCdwy-55FC&amp;ov=9&amp;idfa=23fb7ee51b764d8d&amp;chn=20254-0&amp;ppi=320&amp;carrier=99&amp;av=6.5.2&amp;hwappstorever=&amp;width=720&amp;imei=A00000D3BCA8B1&amp;did=6ffefbff0f08b331f4b5d2c15ec8d997&amp;cid=Youloft_Android&amp;deviceid=6ffefbff0f08b331f4b5d2c15ec8d997&amp;city=101060101&amp;nt=0&amp;t=1677477444&amp;v=1.0&amp;tkn=D0513B7CEF494E82AEAFDFF7B2183ECF&amp;signtimestamp=1677477444&amp;citycode=101060101&amp;autoCityCode=101040700&amp;calculate=0&amp;strategy=1002&amp;bsid=5be162691000000457712943&amp;uid=&amp;utkn=At5XDV-_djXNnaDw_D8gePFiLhKiAxMjkekCr1cO1jk2&amp;lng=0&amp;lon=0&amp;lat=0&amp;logintoken=&amp;calendarType=basics&amp;authtime=1677477444&amp;authsign=3002a74f244d9491897fb349d8408a56&amp;product=PD1901E&amp;vaid=&amp;clienttime=1677477" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?posId=1203&amp;adNum=-1&amp;ssid=CalendarPro&amp;nothoutu=0&amp;bd=com.youloft.calendar&amp;chn2=20254&amp;oudid=23fb7ee51b764d8d&amp;imsi=unknow&amp;mac=02%253A00%253A00%253A00%253A00%253A00&amp;zxaaid=A01-yLbN3nSCdMwutWt7qKoi0TeXHDQfTeV0&amp;imei1=8655"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.0&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497267&amp;lat=29.610751&amp;citycode=101020100&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677477065&amp;authsign=f271d8a0f49b4616d5bad0ef7bfaaa1c&amp;logintoken=&amp;signtimestamp=1677477066&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497267&amp;city=101020100&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=508" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;ptkn=a9ba423b9dfa55e0170b2257caf51edc979f56f15b20d3bdfdbb8b688cc60ee9&amp;lng=106.497255&amp;lat=29.610768&amp;citycode=101250101&amp;autoCityCode=101040700&amp;bsid=63f5b4ba825a44f80e364228&amp;uid=&amp;model=iPhone8,2&amp;ov=13.6.1&amp;nt=wifi&amp;carrier=0&amp;Strategy=1002&amp;authtime=1677476712&amp;authsign=1af22126f2c5361262e3368dc6817f58&amp;logintoken=&amp;signtimestamp=1677476713&amp;calculate=0&amp;zxid=Z01-1677533683-Sohk5AD9eaMRe0Uu-565B&amp;zxaaid=A01-sKQ5SYjKFRIuptg8KF5ZG6UWfq8Kiokr&amp;brand=Apple&amp;lon=106.497255&amp;city=101250101&amp;height=2208&amp;width=1242&amp;dpi=3.00&amp;mcc=&amp;mnc=&amp;posid=1202&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;sign=758" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.2&amp;cid=Youloft_IOS&amp;idfa=FEA15F95-8F9E-4802-99AA-949E2E0C76B6&amp;did=365f5d6465713ff106fcd255da22e2f5d0c26162&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="C9" r:id="rId15" display="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oudid=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;ptkn=981a8045266e80b56e54b9cebbef7d13681da14a2384c919c2cec47727327784&amp;lng=106.497252&amp;lat=29.610755&amp;citycode=101240101&amp;autoCityCode=101040700&amp;bsid=63fb832d825a44f80e364927&amp;uid=qq20220602162724580&amp;model=iPhone12,1&amp;ov=14.4&amp;nt=wifi&amp;carrier=1&amp;Strategy=1002&amp;authtime=1677468233&amp;authsign=8aac183d77adaebb912afc28c8913905&amp;logintoken=7a1f38622e3c4b81b4f75433b90b3d9e&amp;signtimestamp=1677468234&amp;calculate=0&amp;zxid=Z01-1679468331-VNo3%252FABjjh0gjAIA-351E&amp;zxaaid=A01-sDG1%252FH1svBNVoGAlhgTfPl0yOFFV3YQc&amp;brand=Apple&amp;lon=106.497252&amp;city=101240101&amp;height=1624&amp;width=750&amp;dpi=2.00&amp;mcc=460&amp;mnc=01&amp;posid=1208&amp;adnum=1&amp;v=1&amp;calendarType=basics&amp;migrateDate=2023-02-27&amp;sign=958" tooltip="https://ad.51wnl-cq.com/AdApi/GetFeedAds?tkn=6480F2A608958030D190E9E62590174A&amp;mac=&amp;av=6.5.1&amp;cid=Youloft_IOS&amp;idfa=29066541-6C15-4793-B9B6-B38B805F100B&amp;did=b7fd4a03d19e59425e235d7a9b09fe036f625d35&amp;chn=AppStore&amp;cc=CN&amp;lang=zh-Hans&amp;bd=com.ireadercity.zhwll&amp;oud"/>
+    <hyperlink ref="G2" r:id="rId16" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15891&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]" tooltip="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15891&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G3" r:id="rId17" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15890&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G4" r:id="rId17" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15890&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G7" r:id="rId18" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15893&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]" tooltip="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15893&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G8" r:id="rId19" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15892&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]" tooltip="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15892&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G9" r:id="rId19" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15892&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]" tooltip="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=15892&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G12" r:id="rId20" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16818&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G13" r:id="rId21" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16817&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]" tooltip="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16817&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
+    <hyperlink ref="G14" r:id="rId21" display="https://mmp.wnlprozijia.com:10443/linksite/DoLink.aspx?key=16817&amp;loc=10&amp;MAC=[MAC]&amp;IDFA=[IDFA]&amp;OPENUDID=[OPENUDID]&amp;IMEI=[IMEI]&amp;WNLUSERID=[WNLUSERID]"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
